--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_summary_No_lineal_Estacionario_SETAR.xlsx
@@ -40,28 +40,28 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>Block Bootstrapping</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>DeepAR</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
-  </si>
-  <si>
-    <t>Block Bootstrapping</t>
-  </si>
-  <si>
     <t>LSPMW</t>
   </si>
   <si>
     <t>LSPM</t>
   </si>
   <si>
-    <t>4/10</t>
-  </si>
-  <si>
     <t>3/10</t>
+  </si>
+  <si>
+    <t>2/10</t>
   </si>
   <si>
     <t>1/10</t>
@@ -456,7 +456,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>102.4</v>
+        <v>76.8</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -473,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>76.8</v>
+        <v>51.2</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -504,16 +504,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>0.5901067674793075</v>
+        <v>0.6733631690522695</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -530,7 +530,7 @@
         <v>40</v>
       </c>
       <c r="E6">
-        <v>0.6733631690522695</v>
+        <v>0.6112845880987049</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>0.6112845880987049</v>
+        <v>0.5901067674793075</v>
       </c>
     </row>
     <row r="9" spans="1:5">
